--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Ces deux pages sont différentes. La première ne demande que de saisir le nom et la description de l'application. La seconde permet de modifier ces deux paramètres mais permet en plus de voir l'API key générée ainsi que le nombre d'utilisateurs utilisant l'application. Comme ces deux pages sont realtivement différentes, nous n'avons pas factorisé le code</t>
+  </si>
+  <si>
+    <t>La page de visualisation des utilisateurs a été créée mais elle n'est pas accessible</t>
+  </si>
+  <si>
+    <t>Le visuel a été intégré mais n'est pas fonctionnel</t>
   </si>
 </sst>
 </file>
@@ -581,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -779,6 +785,9 @@
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -787,6 +796,9 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -828,6 +840,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -843,7 +858,7 @@
       </c>
       <c r="D26" s="3">
         <f>SUM(D12:D25)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,6 +876,9 @@
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -869,6 +887,9 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -932,6 +953,9 @@
       <c r="B36">
         <v>1</v>
       </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -958,7 +982,7 @@
       </c>
       <c r="D38" s="3">
         <f>SUM(D29:D37)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1087,7 @@
       </c>
       <c r="D51" s="3">
         <f>SUM(D9,D26,D38,D49)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_HEIG-VD\7_5emeSemestre\AMT\Projet\Teaching-HEIGVD-AMT-2015-Project\evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibaud\Documents\Cours\AMT\Teaching-HEIGVD-AMT-2015-Project\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
       </c>
       <c r="D38" s="3">
         <f>SUM(D29:D37)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D51" s="3">
         <f>SUM(D9,D26,D38,D49)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibaud\Documents\Cours\AMT\Teaching-HEIGVD-AMT-2015-Project\evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Ferreira\Documents\Teaching-HEIGVD-AMT-2015-Project\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Le visuel a été intégré mais n'est pas fonctionnel</t>
+  </si>
+  <si>
+    <t>Les données ont été créées dans les tests unitaires.</t>
   </si>
 </sst>
 </file>
@@ -587,18 +590,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="97.875" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
@@ -606,12 +609,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -619,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -627,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -638,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -646,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -654,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -665,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -682,15 +685,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -701,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -712,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -723,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -734,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -745,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -756,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -767,7 +770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -778,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -789,7 +792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -800,7 +803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -811,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -822,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -844,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,15 +864,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -880,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -891,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -902,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -913,7 +916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -935,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -946,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -957,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
@@ -968,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,71 +988,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -1057,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,13 +1095,13 @@
       </c>
       <c r="D49" s="3">
         <f>SUM(D41:D48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -1087,19 +1111,19 @@
       </c>
       <c r="D51" s="3">
         <f>SUM(D9,D26,D38,D49)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>43</v>
       </c>
@@ -1109,7 +1133,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>44</v>
       </c>
